--- a/src/analysis_examples/circadb/results_lomb/cosinor_10371959_elk3_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10371959_elk3_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2885140061642529, 0.360324908878159]</t>
+          <t>[0.2893283795373498, 0.35951053550506207]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.287858708565182e-14</v>
+        <v>8.215650382226158e-15</v>
       </c>
       <c r="N2" t="n">
-        <v>1.287858708565182e-14</v>
+        <v>8.215650382226158e-15</v>
       </c>
       <c r="O2" t="n">
         <v>-1.094368612061309</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.46543458347733013, 0.5032480835962658]</t>
+          <t>[0.465452061233789, 0.5032306058398069]</t>
         </is>
       </c>
       <c r="U2" t="n">
